--- a/data/trans_orig/P14A31-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{732BAC73-BB85-49E1-856E-6470BF4D5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6829B42D-A855-422C-9841-D4E68E08F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9238DFCE-0557-48BA-8ABE-C02370C3C158}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6411A48F-A998-4A79-9656-CBAE83CC3211}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
   <si>
     <t>Población que recibe medicación o terapia por enfermedad de riñón en 2012 (Tasa respuesta: 1,35%)</t>
   </si>
@@ -90,7 +90,7 @@
     <t>26,8%</t>
   </si>
   <si>
-    <t>83,71%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>16,29%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -123,7 +123,7 @@
     <t>75,36%</t>
   </si>
   <si>
-    <t>36,84%</t>
+    <t>37,66%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -135,7 +135,7 @@
     <t>24,64%</t>
   </si>
   <si>
-    <t>63,16%</t>
+    <t>62,34%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -147,13 +147,13 @@
     <t>61,02%</t>
   </si>
   <si>
-    <t>19,77%</t>
+    <t>20,01%</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>32,68%</t>
+    <t>17,17%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -162,13 +162,13 @@
     <t>38,98%</t>
   </si>
   <si>
-    <t>80,23%</t>
+    <t>79,99%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>67,32%</t>
+    <t>82,83%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -180,13 +180,13 @@
     <t>70,61%</t>
   </si>
   <si>
-    <t>28,0%</t>
+    <t>27,14%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>49,95%</t>
+    <t>53,76%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -195,13 +195,13 @@
     <t>29,39%</t>
   </si>
   <si>
-    <t>72,0%</t>
+    <t>72,86%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>50,05%</t>
+    <t>46,24%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -210,49 +210,49 @@
     <t>89,2%</t>
   </si>
   <si>
-    <t>52,46%</t>
+    <t>40,07%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>70,97%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>47,54%</t>
+    <t>59,93%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -261,103 +261,103 @@
     <t>88,4%</t>
   </si>
   <si>
-    <t>65,84%</t>
+    <t>65,44%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>34,16%</t>
+    <t>34,56%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>35,36%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -378,121 +378,109 @@
     <t>73,02%</t>
   </si>
   <si>
-    <t>29,92%</t>
+    <t>30,2%</t>
   </si>
   <si>
     <t>79,14%</t>
   </si>
   <si>
-    <t>45,81%</t>
+    <t>46,01%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>70,08%</t>
+    <t>69,8%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>54,19%</t>
+    <t>53,99%</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>43,09%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
+    <t>56,91%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>54,23%</t>
+    <t>45,79%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>45,77%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>33,61%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>74,19%</t>
@@ -507,19 +495,19 @@
     <t>78,66%</t>
   </si>
   <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>25,81%</t>
@@ -534,73 +522,73 @@
     <t>21,34%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0425399-9FCF-4B60-A723-19039971F90D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6E31C6-E854-459C-8103-693CE419BB67}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2231,7 +2219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF976BD-E24B-4E08-8545-1F4C0950AA50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D77B97-B014-4B0D-B6D8-7AA83F789121}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2826,7 +2814,7 @@
         <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -2838,13 +2826,13 @@
         <v>11469</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2847,13 @@
         <v>3194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2874,13 +2862,13 @@
         <v>2059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2889,13 +2877,13 @@
         <v>5252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,10 +2951,10 @@
         <v>9817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -2978,13 +2966,13 @@
         <v>8804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2993,13 +2981,13 @@
         <v>18622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3002,13 @@
         <v>1324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3029,13 +3017,13 @@
         <v>4457</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -3044,13 +3032,13 @@
         <v>5781</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3106,13 @@
         <v>10860</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3133,13 +3121,13 @@
         <v>26129</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -3148,13 +3136,13 @@
         <v>36989</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3157,13 @@
         <v>3779</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -3184,13 +3172,13 @@
         <v>7089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3199,13 +3187,13 @@
         <v>10868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3261,13 @@
         <v>32791</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3288,13 +3276,13 @@
         <v>42276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M22" s="7">
         <v>71</v>
@@ -3303,13 +3291,13 @@
         <v>75067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3312,13 @@
         <v>12681</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3339,13 +3327,13 @@
         <v>14550</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3354,13 +3342,13 @@
         <v>27231</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A31-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6829B42D-A855-422C-9841-D4E68E08F474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE620C7-105B-437F-9EEE-15659AA5A02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6411A48F-A998-4A79-9656-CBAE83CC3211}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D9100DB-9708-4BCC-9FA4-D92AE653C804}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="182">
   <si>
     <t>Población que recibe medicación o terapia por enfermedad de riñón en 2012 (Tasa respuesta: 1,35%)</t>
   </si>
@@ -123,7 +123,7 @@
     <t>75,36%</t>
   </si>
   <si>
-    <t>37,66%</t>
+    <t>36,64%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -135,7 +135,7 @@
     <t>24,64%</t>
   </si>
   <si>
-    <t>62,34%</t>
+    <t>63,36%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -147,13 +147,13 @@
     <t>61,02%</t>
   </si>
   <si>
-    <t>20,01%</t>
+    <t>19,77%</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>17,17%</t>
+    <t>17,76%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -162,13 +162,13 @@
     <t>38,98%</t>
   </si>
   <si>
-    <t>79,99%</t>
+    <t>80,23%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>82,24%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -180,13 +180,13 @@
     <t>70,61%</t>
   </si>
   <si>
-    <t>27,14%</t>
+    <t>27,08%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>53,76%</t>
+    <t>49,27%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -195,13 +195,13 @@
     <t>29,39%</t>
   </si>
   <si>
-    <t>72,86%</t>
+    <t>72,92%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>46,24%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -210,49 +210,49 @@
     <t>89,2%</t>
   </si>
   <si>
-    <t>40,07%</t>
+    <t>52,9%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
   </si>
   <si>
     <t>70,97%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>59,93%</t>
+    <t>47,1%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -261,334 +261,328 @@
     <t>88,4%</t>
   </si>
   <si>
-    <t>65,44%</t>
+    <t>63,5%</t>
   </si>
   <si>
     <t>70,84%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>34,56%</t>
+    <t>36,5%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2016 (Tasa respuesta: 1,46%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2015 (Tasa respuesta: 1,46%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>43,94%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>18,72%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6E31C6-E854-459C-8103-693CE419BB67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9F9EC6-5C56-4BBB-B2BC-B5E133A66005}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D77B97-B014-4B0D-B6D8-7AA83F789121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F109E0-9E88-4039-9686-7E5F4B8568EA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2802,7 +2796,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2811,7 +2805,7 @@
         <v>5325</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>83</v>
@@ -2826,13 +2820,13 @@
         <v>11469</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,10 +2844,10 @@
         <v>126</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2862,7 +2856,7 @@
         <v>2059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
@@ -2877,10 +2871,10 @@
         <v>5252</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>131</v>
@@ -3294,10 +3288,10 @@
         <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,13 +3306,13 @@
         <v>12681</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3327,13 +3321,13 @@
         <v>14550</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3342,13 +3336,13 @@
         <v>27231</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
